--- a/scenarios-examples/not ready/steel_raw/data/units/var_shared.xlsx
+++ b/scenarios-examples/not ready/steel_raw/data/units/var_shared.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wajju/GitHub/BlackBlox/scenarios-examples/not ready/steel_raw/data/units/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC26C7E-3F49-3843-A403-8EC729F17ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AFCC66-B81D-434D-9361-1C0D6BCA42C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="1220" windowWidth="28640" windowHeight="17540" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4400" yWindow="1220" windowWidth="28640" windowHeight="17540" tabRatio="598" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple_lime" sheetId="2" r:id="rId1"/>
@@ -446,9 +446,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -560,7 +560,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -574,19 +574,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
@@ -875,7 +875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -4647,11 +4647,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q27" sqref="Q27"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4741,7 +4741,9 @@
       <c r="F4" s="28">
         <v>0</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="16">
+        <v>1E-3</v>
+      </c>
       <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">

--- a/scenarios-examples/not ready/steel_raw/data/units/var_shared.xlsx
+++ b/scenarios-examples/not ready/steel_raw/data/units/var_shared.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wajju/GitHub/BlackBlox/scenarios-examples/not ready/steel_raw/data/units/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AFCC66-B81D-434D-9361-1C0D6BCA42C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4018BABB-67B3-8F47-9B1D-CE6CE759DBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="1220" windowWidth="28640" windowHeight="17540" tabRatio="598" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4400" yWindow="1220" windowWidth="28640" windowHeight="17540" tabRatio="598" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple_lime" sheetId="2" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="118">
   <si>
     <t>scenario</t>
   </si>
@@ -879,7 +879,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -958,6 +958,12 @@
       </c>
       <c r="F4" s="10" t="s">
         <v>38</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
@@ -2380,7 +2386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="A7" sqref="A5:XFD7"/>
     </sheetView>
   </sheetViews>
@@ -4647,7 +4653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
